--- a/measurement_results/spectralnorm.xlsx
+++ b/measurement_results/spectralnorm.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AndroidPerformance\measurement_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ja.espinosa12\Documents\AndroidPerformance\measurement_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD42F3D9-AA47-45C1-81D3-20856171CE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{920CAF20-77A7-4068-8968-E4E70BF565E6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$F$32:$F$61</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$F$62:$F$91</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$F$32:$F$61</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$F$62:$F$91</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$F$32:$F$61</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$F$62:$F$91</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$F$2:$F$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -78,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,6 +202,711 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Spectralnorm - CPU(s)</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C5F94AD3-EDD2-41D1-9698-9ED50C15B029}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Dart</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-A2D7-46CF-B5C0-733CADE61AC4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Java</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-A2D7-46CF-B5C0-733CADE61AC4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Kotlin</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>CPU(s)</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,16 +1205,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A6366F-F039-43B8-A5AC-EB0597B09ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection sqref="A1:J91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -562,7 +1278,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -594,7 +1310,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -626,7 +1342,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -658,7 +1374,7 @@
         <v>5442</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -690,7 +1406,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -722,7 +1438,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -754,7 +1470,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -786,7 +1502,7 @@
         <v>5281</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -818,7 +1534,7 @@
         <v>5443</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -850,7 +1566,7 @@
         <v>5277</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -882,7 +1598,7 @@
         <v>5284</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -914,7 +1630,7 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -946,7 +1662,7 @@
         <v>5270</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1694,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,7 +1726,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1758,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1790,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -1106,7 +1822,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1854,7 @@
         <v>5276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1886,7 @@
         <v>5448</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1918,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1950,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1982,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +2014,7 @@
         <v>5432</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
@@ -1330,7 +2046,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +2078,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +2110,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +2142,7 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +2174,7 @@
         <v>5273</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
@@ -1490,7 +2206,7 @@
         <v>5267</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +2238,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +2270,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +2302,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -1618,7 +2334,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
@@ -1650,7 +2366,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +2398,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
@@ -1714,7 +2430,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +2462,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +2494,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
@@ -1810,7 +2526,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>10</v>
       </c>
@@ -1842,7 +2558,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +2590,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>10</v>
       </c>
@@ -1906,7 +2622,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +2654,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +2686,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>10</v>
       </c>
@@ -2002,7 +2718,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2750,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2782,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>10</v>
       </c>
@@ -2098,7 +2814,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
@@ -2130,7 +2846,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
@@ -2162,7 +2878,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
@@ -2194,7 +2910,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2942,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2974,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>10</v>
       </c>
@@ -2290,7 +3006,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +3038,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>10</v>
       </c>
@@ -2354,7 +3070,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +3102,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>10</v>
       </c>
@@ -2418,7 +3134,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>10</v>
       </c>
@@ -2450,7 +3166,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +3198,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>10</v>
       </c>
@@ -2514,7 +3230,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +3262,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>10</v>
       </c>
@@ -2578,7 +3294,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>10</v>
       </c>
@@ -2610,7 +3326,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>10</v>
       </c>
@@ -2642,7 +3358,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +3390,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>10</v>
       </c>
@@ -2706,7 +3422,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
@@ -2738,7 +3454,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>10</v>
       </c>
@@ -2770,7 +3486,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -2802,7 +3518,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>10</v>
       </c>
@@ -2834,7 +3550,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>10</v>
       </c>
@@ -2866,7 +3582,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
@@ -2898,7 +3614,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
@@ -2930,7 +3646,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +3678,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3710,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>10</v>
       </c>
@@ -3026,7 +3742,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3774,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +3806,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>10</v>
       </c>
@@ -3122,7 +3838,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>10</v>
       </c>
@@ -3154,7 +3870,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>10</v>
       </c>
@@ -3186,7 +3902,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3934,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>10</v>
       </c>
@@ -3250,7 +3966,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>10</v>
       </c>
@@ -3282,7 +3998,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +4030,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>10</v>
       </c>
@@ -3346,7 +4062,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +4094,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>10</v>
       </c>
@@ -3412,5 +4128,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>